--- a/src/examplepackage/outputdata/Results.xlsx
+++ b/src/examplepackage/outputdata/Results.xlsx
@@ -451,10 +451,10 @@
         <v>0.2</v>
       </c>
       <c r="D3">
-        <v>0.2001193317422434</v>
+        <v>0.1998806682577565</v>
       </c>
       <c r="E3">
-        <v>0.0002923018786137505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -468,10 +468,10 @@
         <v>0.2</v>
       </c>
       <c r="D4">
-        <v>0.2</v>
+        <v>0.1998806682577565</v>
       </c>
       <c r="E4">
-        <v>0.0002386634844868785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -499,13 +499,13 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.6138424821002386</v>
+        <v>0.6081145584725537</v>
       </c>
       <c r="D6">
-        <v>0.6026252983293556</v>
+        <v>0.6139618138424822</v>
       </c>
       <c r="E6">
-        <v>0.01105993471191744</v>
+        <v>0.007788624759943069</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -513,16 +513,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.4003579952267303</v>
+        <v>0.4028639618138425</v>
       </c>
       <c r="C7">
-        <v>0.4085918854415275</v>
+        <v>0.3918854415274463</v>
       </c>
       <c r="D7">
-        <v>0.3847255369928401</v>
+        <v>0.4156324582338902</v>
       </c>
       <c r="E7">
-        <v>0.01686086153811938</v>
+        <v>0.02622204729679118</v>
       </c>
     </row>
   </sheetData>
@@ -557,16 +557,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.5251789976133652</v>
+        <v>0.528400954653938</v>
       </c>
       <c r="C2">
-        <v>0.4964200477326969</v>
+        <v>0.4720763723150358</v>
       </c>
       <c r="D2">
-        <v>0.4838902147971361</v>
+        <v>0.4923627684964201</v>
       </c>
       <c r="E2">
-        <v>0.007742781955851221</v>
+        <v>0.009059786585251698</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -574,16 +574,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.7017899761336516</v>
+        <v>0.6965393794749404</v>
       </c>
       <c r="C3">
-        <v>0.6229116945107399</v>
+        <v>0.6042959427207637</v>
       </c>
       <c r="D3">
-        <v>0.6176610978520286</v>
+        <v>0.6272076372315036</v>
       </c>
       <c r="E3">
-        <v>0.008633220643286839</v>
+        <v>0.01006497989687804</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -591,16 +591,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.9998806682577566</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0.548926014319809</v>
+        <v>0.522673031026253</v>
       </c>
       <c r="D4">
-        <v>0.5739856801909308</v>
+        <v>0.5799522673031026</v>
       </c>
       <c r="E4">
-        <v>0.005160321792467694</v>
+        <v>0.0114707540245326</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -608,16 +608,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.6860381861575179</v>
+        <v>0.6892601431980907</v>
       </c>
       <c r="C5">
-        <v>0.5937947494033413</v>
+        <v>0.5890214797136039</v>
       </c>
       <c r="D5">
-        <v>0.6145584725536992</v>
+        <v>0.6217183770883056</v>
       </c>
       <c r="E5">
-        <v>0.005797115895699816</v>
+        <v>0.01216949764580617</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -628,13 +628,13 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.5532219570405728</v>
+        <v>0.5326968973747017</v>
       </c>
       <c r="D6">
-        <v>0.5868735083532221</v>
+        <v>0.5908114558472554</v>
       </c>
       <c r="E6">
-        <v>0.01040036208568063</v>
+        <v>0.008175748512153025</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -642,16 +642,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.3275656324582339</v>
+        <v>0.3201670644391408</v>
       </c>
       <c r="C7">
-        <v>0.2949880668257757</v>
+        <v>0.2926014319809069</v>
       </c>
       <c r="D7">
-        <v>0.2908114558472554</v>
+        <v>0.2885441527446301</v>
       </c>
       <c r="E7">
-        <v>0.006788287662686338</v>
+        <v>0.009324689544432616</v>
       </c>
     </row>
   </sheetData>
@@ -686,16 +686,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.3446300715990454</v>
+        <v>0.3614558472553699</v>
       </c>
       <c r="C2">
-        <v>0.3570405727923628</v>
+        <v>0.3460620525059666</v>
       </c>
       <c r="D2">
-        <v>0.3398568019093079</v>
+        <v>0.3590692124105012</v>
       </c>
       <c r="E2">
-        <v>0.0137702832809085</v>
+        <v>0.002011014265674538</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -703,16 +703,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.425417661097852</v>
+        <v>0.4288782816229117</v>
       </c>
       <c r="C3">
-        <v>0.4272076372315036</v>
+        <v>0.4047732696897375</v>
       </c>
       <c r="D3">
-        <v>0.4020286396181384</v>
+        <v>0.4156324582338902</v>
       </c>
       <c r="E3">
-        <v>0.01293194957913515</v>
+        <v>0.01553422468365732</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -720,16 +720,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.9809069212410502</v>
+        <v>0.9840095465393794</v>
       </c>
       <c r="C4">
-        <v>0.4768496420047733</v>
+        <v>0.4443914081145585</v>
       </c>
       <c r="D4">
-        <v>0.4923627684964201</v>
+        <v>0.491527446300716</v>
       </c>
       <c r="E4">
-        <v>0.007369640886226494</v>
+        <v>0.01242082368581313</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -737,16 +737,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.6286396181384248</v>
+        <v>0.6115751789976134</v>
       </c>
       <c r="C5">
-        <v>0.5408114558472553</v>
+        <v>0.4926014319809069</v>
       </c>
       <c r="D5">
-        <v>0.5559665871121718</v>
+        <v>0.5505966587112172</v>
       </c>
       <c r="E5">
-        <v>0.01120956426331013</v>
+        <v>0.007213403942581117</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -757,13 +757,13 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.513126491646778</v>
+        <v>0.4768496420047733</v>
       </c>
       <c r="D6">
-        <v>0.5340095465393795</v>
+        <v>0.5324582338902147</v>
       </c>
       <c r="E6">
-        <v>0.009048777379536448</v>
+        <v>0.009155163617573585</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -771,16 +771,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.3673031026252983</v>
+        <v>0.3910501193317422</v>
       </c>
       <c r="C7">
-        <v>0.3742243436754177</v>
+        <v>0.3813842482100239</v>
       </c>
       <c r="D7">
-        <v>0.3596658711217183</v>
+        <v>0.3862768496420048</v>
       </c>
       <c r="E7">
-        <v>0.01482021450716947</v>
+        <v>0.004312484725439777</v>
       </c>
     </row>
   </sheetData>
